--- a/car2.xlsx
+++ b/car2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculty\GP\Graduation-Project-V2V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCF67BC-CD8B-4123-A009-B9C32E5E8039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0B2998-26A5-433B-A79C-739D925FE793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="car2" sheetId="2" r:id="rId1"/>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E399D-651A-40FB-8D18-DCFC1295F468}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
